--- a/V как N.xlsx
+++ b/V как N.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\OneDrive\HSE\Elasticsearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df09684575ea6aa1/MyProjects/GIT/Semantics_bd/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6370"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2826,9 +2826,6 @@
     <t>изменение состояния/признака: начало нового состояния/признака, физиология</t>
   </si>
   <si>
-    <t>свойство, проявление</t>
-  </si>
-  <si>
     <t>действие, свойство</t>
   </si>
   <si>
@@ -2847,9 +2844,6 @@
     <t>звук, речь</t>
   </si>
   <si>
-    <t>действие, событие</t>
-  </si>
-  <si>
     <t>звук, эмоции: проявление, речь</t>
   </si>
   <si>
@@ -2902,6 +2896,12 @@
   </si>
   <si>
     <t>класс наун</t>
+  </si>
+  <si>
+    <t>физические свойства/состояния: результат воздействия</t>
+  </si>
+  <si>
+    <t>физические свойства/состояния</t>
   </si>
 </sst>
 </file>
@@ -3383,18 +3383,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="2"/>
-    <col min="3" max="3" width="8.7265625" style="18"/>
-    <col min="4" max="5" width="8.7265625"/>
+    <col min="2" max="2" width="36.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.81640625" style="11" customWidth="1"/>
     <col min="8" max="8" width="26.1796875" style="2" customWidth="1"/>
@@ -3409,16 +3411,16 @@
         <v>867</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>920</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>868</v>
@@ -3437,7 +3439,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>320</v>
       </c>
@@ -3469,7 +3471,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>407</v>
       </c>
@@ -3480,7 +3482,7 @@
         <v>405</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>335</v>
@@ -3501,7 +3503,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>440</v>
       </c>
@@ -3527,7 +3529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>581</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>581</v>
       </c>
@@ -3584,7 +3586,7 @@
         <v>589</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>588</v>
@@ -3593,7 +3595,7 @@
         <v>314</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>299</v>
@@ -3605,7 +3607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>327</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>327</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>412</v>
       </c>
@@ -3689,7 +3691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>412</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>332</v>
       </c>
@@ -3744,7 +3746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>477</v>
       </c>
@@ -3770,7 +3772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>430</v>
       </c>
@@ -3796,7 +3798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>367</v>
       </c>
@@ -3822,7 +3824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>434</v>
       </c>
@@ -3833,7 +3835,7 @@
         <v>433</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>720</v>
@@ -3848,12 +3850,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>350</v>
@@ -3874,12 +3876,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>390</v>
@@ -3903,12 +3905,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>399</v>
@@ -3932,12 +3934,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>469</v>
@@ -3958,12 +3960,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>556</v>
@@ -3984,12 +3986,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>557</v>
@@ -4010,12 +4012,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>539</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>848</v>
+        <v>957</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>538</v>
@@ -4039,7 +4041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>567</v>
       </c>
@@ -4053,7 +4055,7 @@
         <v>605</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>270</v>
@@ -4068,7 +4070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>514</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>328</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>328</v>
       </c>
@@ -4146,7 +4148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>564</v>
       </c>
@@ -4157,10 +4159,10 @@
         <v>563</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>267</v>
@@ -4172,7 +4174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>487</v>
       </c>
@@ -4198,7 +4200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>487</v>
       </c>
@@ -4224,7 +4226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>497</v>
       </c>
@@ -4238,7 +4240,7 @@
         <v>600</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>171</v>
@@ -4253,7 +4255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>776</v>
       </c>
@@ -4267,7 +4269,7 @@
         <v>605</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>210</v>
@@ -4282,7 +4284,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>504</v>
       </c>
@@ -4314,7 +4316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>330</v>
       </c>
@@ -4340,7 +4342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>330</v>
       </c>
@@ -4366,7 +4368,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>393</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>393</v>
       </c>
@@ -4432,7 +4434,7 @@
         <v>314</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>155</v>
@@ -4444,7 +4446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>525</v>
       </c>
@@ -4458,7 +4460,7 @@
         <v>605</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>207</v>
@@ -4473,21 +4475,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>444</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>892</v>
@@ -4499,12 +4501,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>538</v>
@@ -4525,12 +4527,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>445</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>557</v>
@@ -4551,7 +4553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>418</v>
       </c>
@@ -4580,7 +4582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>418</v>
       </c>
@@ -4609,7 +4611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>418</v>
       </c>
@@ -4620,7 +4622,7 @@
         <v>517</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>360</v>
@@ -4638,7 +4640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>418</v>
       </c>
@@ -4667,7 +4669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>418</v>
       </c>
@@ -4681,7 +4683,7 @@
         <v>600</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>203</v>
@@ -4696,7 +4698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>418</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>600</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>281</v>
@@ -4725,7 +4727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>366</v>
       </c>
@@ -4754,12 +4756,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>551</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>538</v>
@@ -4780,12 +4782,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>551</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>549</v>
@@ -4806,12 +4808,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>551</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>557</v>
@@ -4832,12 +4834,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>550</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>538</v>
@@ -4858,12 +4860,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>550</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>549</v>
@@ -4884,12 +4886,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>550</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>557</v>
@@ -4910,7 +4912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>536</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>535</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>321</v>
@@ -4936,7 +4938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>709</v>
       </c>
@@ -4965,7 +4967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>374</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>374</v>
       </c>
@@ -5017,7 +5019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>374</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>313</v>
       </c>
@@ -5073,7 +5075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>313</v>
       </c>
@@ -5100,7 +5102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>322</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>337</v>
       </c>
@@ -5155,7 +5157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>337</v>
       </c>
@@ -5166,7 +5168,7 @@
         <v>415</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>311</v>
@@ -5184,7 +5186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>337</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>416</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>311</v>
@@ -5213,7 +5215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>323</v>
       </c>
@@ -5239,7 +5241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>323</v>
       </c>
@@ -5265,12 +5267,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>575</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>601</v>
@@ -5289,12 +5291,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>575</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>574</v>
@@ -5315,7 +5317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>391</v>
       </c>
@@ -5341,7 +5343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>586</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>711</v>
       </c>
@@ -5393,7 +5395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>541</v>
       </c>
@@ -5419,7 +5421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>541</v>
       </c>
@@ -5445,7 +5447,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>404</v>
       </c>
@@ -5474,7 +5476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>715</v>
       </c>
@@ -5503,7 +5505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>395</v>
       </c>
@@ -5540,10 +5542,10 @@
         <v>528</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>213</v>
@@ -5555,7 +5557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>714</v>
       </c>
@@ -5581,7 +5583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>508</v>
       </c>
@@ -5607,7 +5609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>373</v>
       </c>
@@ -5633,7 +5635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>373</v>
       </c>
@@ -5659,7 +5661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>373</v>
       </c>
@@ -5685,7 +5687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>377</v>
       </c>
@@ -5714,7 +5716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>377</v>
       </c>
@@ -5746,7 +5748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>377</v>
       </c>
@@ -5775,7 +5777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>377</v>
       </c>
@@ -5804,7 +5806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>471</v>
       </c>
@@ -5830,7 +5832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>471</v>
       </c>
@@ -5856,7 +5858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>471</v>
       </c>
@@ -5893,10 +5895,10 @@
         <v>528</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>214</v>
@@ -5908,7 +5910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>705</v>
       </c>
@@ -5934,7 +5936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>382</v>
       </c>
@@ -5960,12 +5962,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>501</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>500</v>
@@ -6000,7 +6002,7 @@
         <v>314</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>156</v>
@@ -6012,7 +6014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>512</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>485</v>
       </c>
@@ -6055,7 +6057,7 @@
         <v>600</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>159</v>
@@ -6067,7 +6069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>707</v>
       </c>
@@ -6093,7 +6095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>707</v>
       </c>
@@ -6119,7 +6121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>707</v>
       </c>
@@ -6148,7 +6150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>707</v>
       </c>
@@ -6177,7 +6179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>522</v>
       </c>
@@ -6191,7 +6193,7 @@
         <v>600</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>206</v>
@@ -6203,7 +6205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>400</v>
       </c>
@@ -6229,7 +6231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>339</v>
       </c>
@@ -6258,7 +6260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>339</v>
       </c>
@@ -6287,7 +6289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>435</v>
       </c>
@@ -6298,7 +6300,7 @@
         <v>433</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>720</v>
@@ -6313,7 +6315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>406</v>
       </c>
@@ -6324,7 +6326,7 @@
         <v>405</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>335</v>
@@ -6342,7 +6344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>317</v>
       </c>
@@ -6371,7 +6373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>317</v>
       </c>
@@ -6397,7 +6399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>317</v>
       </c>
@@ -6429,7 +6431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>456</v>
       </c>
@@ -6458,7 +6460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>456</v>
       </c>
@@ -6484,7 +6486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>456</v>
       </c>
@@ -6510,7 +6512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>408</v>
       </c>
@@ -6521,7 +6523,7 @@
         <v>405</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>335</v>
@@ -6539,21 +6541,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>712</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>848</v>
+        <v>957</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>444</v>
       </c>
       <c r="D116" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>125</v>
@@ -6570,7 +6572,7 @@
         <v>548</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>547</v>
@@ -6579,7 +6581,7 @@
         <v>314</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>238</v>
@@ -6596,7 +6598,7 @@
         <v>548</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>588</v>
@@ -6605,7 +6607,7 @@
         <v>314</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>300</v>
@@ -6617,12 +6619,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>848</v>
+        <v>957</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>409</v>
@@ -6644,7 +6646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>347</v>
       </c>
@@ -6673,7 +6675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>347</v>
       </c>
@@ -6702,7 +6704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>347</v>
       </c>
@@ -6731,12 +6733,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>560</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>557</v>
@@ -6760,12 +6762,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>340</v>
@@ -6786,12 +6788,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C125" s="18" t="s">
         <v>342</v>
@@ -6812,12 +6814,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>355</v>
@@ -6838,7 +6840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>718</v>
       </c>
@@ -6867,7 +6869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>472</v>
       </c>
@@ -6893,7 +6895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>425</v>
       </c>
@@ -6919,7 +6921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>425</v>
       </c>
@@ -6945,7 +6947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>447</v>
       </c>
@@ -6956,10 +6958,10 @@
         <v>444</v>
       </c>
       <c r="D131" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>126</v>
@@ -6971,7 +6973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>446</v>
       </c>
@@ -6982,10 +6984,10 @@
         <v>444</v>
       </c>
       <c r="D132" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>127</v>
@@ -6997,7 +6999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>446</v>
       </c>
@@ -7023,7 +7025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>357</v>
       </c>
@@ -7049,7 +7051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>584</v>
       </c>
@@ -7078,7 +7080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>431</v>
       </c>
@@ -7104,12 +7106,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>530</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>848</v>
+        <v>957</v>
       </c>
       <c r="C137" s="18" t="s">
         <v>529</v>
@@ -7130,12 +7132,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>530</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>848</v>
+        <v>957</v>
       </c>
       <c r="C138" s="18" t="s">
         <v>578</v>
@@ -7156,7 +7158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>484</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>600</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>161</v>
@@ -7182,7 +7184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>344</v>
       </c>
@@ -7208,7 +7210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>388</v>
       </c>
@@ -7234,7 +7236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>388</v>
       </c>
@@ -7248,7 +7250,7 @@
         <v>314</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>269</v>
@@ -7260,7 +7262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>334</v>
       </c>
@@ -7289,7 +7291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>348</v>
       </c>
@@ -7315,12 +7317,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>710</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>848</v>
+        <v>957</v>
       </c>
       <c r="C145" s="18" t="s">
         <v>585</v>
@@ -7341,7 +7343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>353</v>
       </c>
@@ -7367,7 +7369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>716</v>
       </c>
@@ -7393,7 +7395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>362</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>380</v>
       </c>
@@ -7448,7 +7450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>380</v>
       </c>
@@ -7477,7 +7479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>380</v>
       </c>
@@ -7488,7 +7490,7 @@
         <v>432</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>721</v>
@@ -7503,7 +7505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>380</v>
       </c>
@@ -7514,7 +7516,7 @@
         <v>433</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>720</v>
@@ -7532,7 +7534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>380</v>
       </c>
@@ -7558,7 +7560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>438</v>
       </c>
@@ -7572,7 +7574,7 @@
         <v>600</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>118</v>
@@ -7590,12 +7592,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>587</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>848</v>
+        <v>957</v>
       </c>
       <c r="C155" s="18" t="s">
         <v>585</v>
@@ -7616,12 +7618,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>587</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>848</v>
+        <v>957</v>
       </c>
       <c r="C156" s="18" t="s">
         <v>595</v>
@@ -7642,12 +7644,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>546</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>610</v>
+        <v>383</v>
       </c>
       <c r="C157" s="18" t="s">
         <v>545</v>
@@ -7668,7 +7670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>492</v>
       </c>
@@ -7682,7 +7684,7 @@
         <v>605</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>907</v>
@@ -7694,7 +7696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>492</v>
       </c>
@@ -7708,7 +7710,7 @@
         <v>600</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>168</v>
@@ -7720,12 +7722,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>492</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C160" s="18" t="s">
         <v>519</v>
@@ -7746,7 +7748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>706</v>
       </c>
@@ -7772,7 +7774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>706</v>
       </c>
@@ -7798,7 +7800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>706</v>
       </c>
@@ -7838,7 +7840,7 @@
         <v>314</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>157</v>
@@ -7850,7 +7852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>706</v>
       </c>
@@ -7881,7 +7883,7 @@
         <v>706</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>848</v>
+        <v>617</v>
       </c>
       <c r="C166" s="18" t="s">
         <v>531</v>
@@ -7890,7 +7892,7 @@
         <v>314</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>216</v>
@@ -7907,7 +7909,7 @@
         <v>468</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>866</v>
+        <v>957</v>
       </c>
       <c r="C167" s="18" t="s">
         <v>466</v>
@@ -7916,7 +7918,7 @@
         <v>314</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>144</v>
@@ -7928,7 +7930,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>527</v>
       </c>
@@ -7954,12 +7956,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>527</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>620</v>
+        <v>866</v>
       </c>
       <c r="C169" s="18" t="s">
         <v>572</v>
@@ -7983,18 +7985,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>594</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>847</v>
+        <v>620</v>
       </c>
       <c r="C170" s="18" t="s">
         <v>593</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>349</v>
@@ -8009,12 +8011,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>865</v>
+      <c r="B171" s="2" t="s">
+        <v>847</v>
       </c>
       <c r="C171" s="18" t="s">
         <v>552</v>
@@ -8041,7 +8043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>316</v>
       </c>
@@ -8070,7 +8072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>316</v>
       </c>
@@ -8081,10 +8083,10 @@
         <v>444</v>
       </c>
       <c r="D173" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>128</v>
@@ -8096,7 +8098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>316</v>
       </c>
@@ -8122,12 +8124,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>613</v>
+        <v>865</v>
       </c>
       <c r="C175" s="18" t="s">
         <v>924</v>
@@ -8148,7 +8150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>365</v>
       </c>
@@ -8174,21 +8176,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>861</v>
+        <v>613</v>
       </c>
       <c r="C177" s="18" t="s">
         <v>563</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>268</v>
@@ -8200,7 +8202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>458</v>
       </c>
@@ -8226,7 +8228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>458</v>
       </c>
@@ -8252,7 +8254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>458</v>
       </c>
@@ -8278,12 +8280,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>613</v>
+      <c r="B181" s="3" t="s">
+        <v>861</v>
       </c>
       <c r="C181" s="18" t="s">
         <v>460</v>
@@ -8304,12 +8306,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>865</v>
+      <c r="B182" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="C182" s="18" t="s">
         <v>590</v>
@@ -8331,12 +8333,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>847</v>
+      <c r="B183" s="3" t="s">
+        <v>865</v>
       </c>
       <c r="C183" s="18" t="s">
         <v>448</v>
@@ -8360,12 +8362,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>510</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>702</v>
+        <v>847</v>
       </c>
       <c r="C184" s="18" t="s">
         <v>509</v>
@@ -8386,12 +8388,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>559</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>846</v>
+        <v>702</v>
       </c>
       <c r="C185" s="18" t="s">
         <v>557</v>
@@ -8412,7 +8414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>482</v>
       </c>
@@ -8438,12 +8440,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>482</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>701</v>
+        <v>846</v>
       </c>
       <c r="C187" s="18" t="s">
         <v>483</v>
@@ -8452,7 +8454,7 @@
         <v>600</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>162</v>
@@ -8464,7 +8466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>452</v>
       </c>
@@ -8475,7 +8477,7 @@
         <v>451</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>311</v>
@@ -8493,12 +8495,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>452</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>846</v>
+        <v>701</v>
       </c>
       <c r="C189" s="18" t="s">
         <v>534</v>
@@ -8522,12 +8524,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>421</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="C190" s="18" t="s">
         <v>420</v>
@@ -8551,7 +8553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>231</v>
       </c>
@@ -8577,7 +8579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>231</v>
       </c>
@@ -8603,7 +8605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>231</v>
       </c>
@@ -8632,7 +8634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>231</v>
       </c>
@@ -8658,12 +8660,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>615</v>
+      <c r="B195" s="3" t="s">
+        <v>861</v>
       </c>
       <c r="C195" s="18" t="s">
         <v>582</v>
@@ -8684,12 +8686,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>862</v>
+      <c r="B196" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="C196" s="18" t="s">
         <v>542</v>
@@ -8710,7 +8712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>389</v>
       </c>
@@ -8736,12 +8738,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>620</v>
+      <c r="B198" s="3" t="s">
+        <v>862</v>
       </c>
       <c r="C198" s="18" t="s">
         <v>475</v>
@@ -8750,7 +8752,7 @@
         <v>314</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>150</v>
@@ -8762,12 +8764,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>862</v>
+      <c r="B199" s="2" t="s">
+        <v>620</v>
       </c>
       <c r="C199" s="18" t="s">
         <v>523</v>
@@ -8776,7 +8778,7 @@
         <v>605</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>208</v>
@@ -8791,12 +8793,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>386</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>613</v>
+        <v>862</v>
       </c>
       <c r="C200" s="18" t="s">
         <v>385</v>
@@ -8817,7 +8819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>346</v>
       </c>
@@ -8843,12 +8845,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>618</v>
+      <c r="B202" s="3" t="s">
+        <v>613</v>
       </c>
       <c r="C202" s="18" t="s">
         <v>345</v>
@@ -8869,7 +8871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>717</v>
       </c>
@@ -8898,7 +8900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>562</v>
       </c>
@@ -8924,12 +8926,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>613</v>
+      <c r="B205" s="2" t="s">
+        <v>618</v>
       </c>
       <c r="C205" s="18" t="s">
         <v>557</v>
@@ -8950,7 +8952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>436</v>
       </c>
@@ -8961,7 +8963,7 @@
         <v>433</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>720</v>
@@ -8976,7 +8978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>375</v>
       </c>
@@ -9005,12 +9007,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>955</v>
+      <c r="B208" s="3" t="s">
+        <v>613</v>
       </c>
       <c r="C208" s="18" t="s">
         <v>570</v>
@@ -9031,12 +9033,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C209" s="18" t="s">
         <v>309</v>
@@ -9057,12 +9059,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>402</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C210" s="18" t="s">
         <v>401</v>
@@ -9083,12 +9085,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>402</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C211" s="18" t="s">
         <v>463</v>
@@ -9109,12 +9111,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>402</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C212" s="18" t="s">
         <v>511</v>
@@ -9140,7 +9142,7 @@
         <v>402</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C213" s="18" t="s">
         <v>547</v>
@@ -9149,7 +9151,7 @@
         <v>314</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>239</v>
@@ -9166,7 +9168,7 @@
         <v>402</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C214" s="18" t="s">
         <v>588</v>
@@ -9175,7 +9177,7 @@
         <v>314</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>301</v>
@@ -9187,7 +9189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>554</v>
       </c>
@@ -9213,7 +9215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>381</v>
       </c>
@@ -9242,7 +9244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>381</v>
       </c>
@@ -9271,7 +9273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>708</v>
       </c>
@@ -9297,7 +9299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>474</v>
       </c>
@@ -9323,7 +9325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>419</v>
       </c>
@@ -9349,7 +9351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>419</v>
       </c>
@@ -9375,7 +9377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>359</v>
       </c>
@@ -9389,7 +9391,7 @@
         <v>605</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>211</v>
@@ -9401,7 +9403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>429</v>
       </c>
@@ -9427,7 +9429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>495</v>
       </c>
@@ -9456,7 +9458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>454</v>
       </c>
@@ -9482,7 +9484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>398</v>
       </c>
@@ -9508,7 +9510,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>398</v>
       </c>
@@ -9519,10 +9521,10 @@
         <v>444</v>
       </c>
       <c r="D227" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>129</v>
@@ -9534,7 +9536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>398</v>
       </c>
@@ -9560,7 +9562,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>398</v>
       </c>
@@ -9586,12 +9588,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C230" s="18" t="s">
         <v>443</v>
@@ -9615,12 +9617,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C231" s="18" t="s">
         <v>464</v>
@@ -9641,12 +9643,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C232" s="18" t="s">
         <v>340</v>
@@ -9667,12 +9669,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="C233" s="18" t="s">
         <v>489</v>
@@ -9693,7 +9695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>369</v>
       </c>
@@ -9719,7 +9721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>704</v>
       </c>
@@ -9753,7 +9755,7 @@
         <v>467</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C236" s="18" t="s">
         <v>466</v>
@@ -9762,7 +9764,7 @@
         <v>314</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>145</v>
@@ -9774,7 +9776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>506</v>
       </c>
@@ -9803,7 +9805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>561</v>
       </c>
@@ -9829,7 +9831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>513</v>
       </c>
@@ -9858,7 +9860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>383</v>
       </c>
@@ -9882,7 +9884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>383</v>
       </c>
@@ -9908,7 +9910,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>383</v>
       </c>
@@ -9932,7 +9934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>414</v>
       </c>
@@ -9958,7 +9960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>414</v>
       </c>
@@ -9987,7 +9989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>703</v>
       </c>
@@ -10019,7 +10021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>703</v>
       </c>
@@ -10058,7 +10060,14 @@
       <c r="K250" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I246"/>
+  <autoFilter ref="A1:I246">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="звук, эмоции: проявление, речь"/>
+        <filter val="эмоции: проявление, звук"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:H250">
     <sortCondition ref="A1"/>
   </sortState>
